--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.schwarz/Downloads/12-website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.schwarz/Dropbox/05_teaching/2020_SS/01_gh_pages/r-course-material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C38BC-A37C-864A-8B21-1366B4107516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F87C73-4834-C34B-BCDF-0042EE662EAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30920" yWindow="2360" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67700" yWindow="2740" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Week</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -39,21 +36,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>No Class</t>
-  </si>
-  <si>
-    <t>[Getting Started](https://crumplab.github.io/psyc7709/Schedule.html#getting_started)</t>
-  </si>
-  <si>
-    <t>[Introduction to R Markdown](https://crumplab.github.io/psyc7709/Schedule.html#1_r,_r_markdown,_websites,__github)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R I](https://crumplab.github.io/psyc7709/Schedule.html#2_basic_programming_in_r_i)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R II](https://crumplab.github.io/psyc7709/Schedule.html#3_basic_programming_in_r_ii)</t>
-  </si>
-  <si>
     <t>Assignments</t>
   </si>
   <si>
@@ -66,29 +48,64 @@
     <t>week 3 due (basics II)</t>
   </si>
   <si>
-    <t>[Data-Visualization](https://crumplab.github.io/psyc7709/Schedule.html#4_data-visualization)</t>
-  </si>
-  <si>
-    <t>[Data-Wrangling](https://crumplab.github.io/psyc7709/Schedule.html#5_data-wrangling)</t>
-  </si>
-  <si>
-    <t>week 4 due (data-vis)</t>
-  </si>
-  <si>
-    <t>Snow day (make up W May 15th)</t>
-  </si>
-  <si>
-    <t>28.01.2020</t>
+    <t>14.06.2020</t>
+  </si>
+  <si>
+    <t>03.05.2020</t>
+  </si>
+  <si>
+    <t>08.05.2020</t>
+  </si>
+  <si>
+    <t>19.06.2020</t>
+  </si>
+  <si>
+    <t>20.06.2020</t>
+  </si>
+  <si>
+    <t>21.06.2020</t>
+  </si>
+  <si>
+    <t>[Getting Started](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_first_entry)</t>
+  </si>
+  <si>
+    <t>[Introduction to R Markdown](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>[Basic Programming in R I](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>[Basic Programming in R II](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>[Data-Visualization I](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>[Data-Visualization II](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>[Data-Wrangling](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
+  </si>
+  <si>
+    <t>Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,17 +128,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,106 +438,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.schwarz/Dropbox/05_teaching/2020_SS/01_gh_pages/r-course-material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.schwarz/Documents/06_gh_page/data-science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F87C73-4834-C34B-BCDF-0042EE662EAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD102AA-800E-F54B-904E-6D873CE2623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67700" yWindow="2740" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33920" yWindow="3760" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Assignments</t>
   </si>
   <si>
-    <t>week I due (website)</t>
-  </si>
-  <si>
     <t>week 2 due (basics I)</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>03.05.2020</t>
   </si>
   <si>
-    <t>08.05.2020</t>
-  </si>
-  <si>
     <t>19.06.2020</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t>[Introduction to R Markdown](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R I](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
   </si>
   <si>
     <t>[Basic Programming in R II](https://tuhh-w11.github.io/data-science/02_classes_DS101.html#2_second_entry)</t>
@@ -422,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +429,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -453,7 +444,7 @@
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -461,21 +452,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -483,59 +474,45 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.schwarz/Documents/06_gh_page/data-science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD102AA-800E-F54B-904E-6D873CE2623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D317CB-57F7-334B-958C-BF09E2D88436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33920" yWindow="3760" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33620" yWindow="8060" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Lab</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +445,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
